--- a/2025_player_stats.xlsx
+++ b/2025_player_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Poon2025\HockeyPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Pools\Poon2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DF82E4-DB4A-4F33-9DAE-C4207405FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC4B94-419A-48C9-971F-6188AF4B6329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" r:id="rId1"/>
@@ -4330,9 +4330,6 @@
     <t>Harvey</t>
   </si>
   <si>
-    <t>Luca/Ryan</t>
-  </si>
-  <si>
     <t>Ian F</t>
   </si>
   <si>
@@ -4355,6 +4352,9 @@
   </si>
   <si>
     <t>landeskog</t>
+  </si>
+  <si>
+    <t>Ryan</t>
   </si>
 </sst>
 </file>
@@ -44431,7 +44431,7 @@
   <dimension ref="A1:AV24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44498,35 +44498,35 @@
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23" t="s">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="23" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K1" s="23"/>
       <c r="L1" s="23" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="23" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="S1" s="23"/>
       <c r="T1" s="23" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="U1" s="23"/>
       <c r="V1" s="23" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="W1" s="23"/>
       <c r="X1" s="22" t="s">
@@ -45267,7 +45267,7 @@
         <v>1407</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Lookup!$C:$E,3, FALSE)),"",VLOOKUP(B7,Lookup!$C:$E,3, FALSE))</f>
@@ -46375,15 +46375,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -46396,6 +46387,15 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
